--- a/Quality_Sweater_Company.xlsx
+++ b/Quality_Sweater_Company.xlsx
@@ -1,26 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Excels\Excel-Projects\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06CDA7F-AA60-43D8-AB4D-BB32FB7BF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>Quality Sweater Company</t>
+  </si>
+  <si>
+    <t>Inputs:</t>
+  </si>
+  <si>
+    <t>Costs:</t>
+  </si>
+  <si>
+    <t>Printing:</t>
+  </si>
+  <si>
+    <t>Variable:</t>
+  </si>
+  <si>
+    <t>per catalogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mailing: </t>
+  </si>
+  <si>
+    <t>Reply envolpes:</t>
+  </si>
+  <si>
+    <t>per order</t>
+  </si>
+  <si>
+    <t>Average Customer Order:</t>
+  </si>
+  <si>
+    <t>Revenue:</t>
+  </si>
+  <si>
+    <t>Labour &amp; Materials:</t>
+  </si>
+  <si>
+    <t>Catelogs Ordered:</t>
+  </si>
+  <si>
+    <t>Response Rate:</t>
+  </si>
+  <si>
+    <t>Total Orders:</t>
+  </si>
+  <si>
+    <t>&lt;-Dummy</t>
+  </si>
+  <si>
+    <t>Total Revenue:</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
+  <si>
+    <t>Total Profit:</t>
+  </si>
+  <si>
+    <t>a) Data Table</t>
+  </si>
+  <si>
+    <t>Profit:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +118,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +169,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +217,980 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Quality Sweater</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Response Rate Vs Profit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$9:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-21600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2100.0000000000291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1799.9999999999709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5699.9999999999709</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBC1-470B-ACBD-2E51AAD4B1ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="625024408"/>
+        <c:axId val="625021888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="625024408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625021888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="625021888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625024408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0806E2FD-2A55-908C-2948-702DD2EA8816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1455,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <f>B20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="dataTable" ref="G9:G19" dt2D="0" dtr="0" r1="B14"/>
+        <v>-21600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-17700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <f>B5+(B7+B8)*B13+(B9+B10)*B15</f>
+        <v>230769.23076923096</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-13800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="8">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-9900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5.7692307692307744E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-2100.0000000000291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>B13*B14</f>
+        <v>5769.2307692307741</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1799.9999999999709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5699.9999999999709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7">
+        <f>B15*B18</f>
+        <v>230769.23076923096</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="G19" s="2">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B19-B11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>